--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_DeepAR_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_DeepAR_No_Lineal_Estacionario_SETAR.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.6322477131688989</v>
+        <v>0.6014579467555505</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.6167276231584793</v>
+        <v>0.6091631725583236</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.6332213953123457</v>
+        <v>0.6089098619418625</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.6266411458939485</v>
+        <v>0.605961835027105</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.6187332405688017</v>
+        <v>0.6035235594163624</v>
       </c>
     </row>
   </sheetData>
